--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value129.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value129.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.973080806761881</v>
+        <v>0.4672717750072479</v>
       </c>
       <c r="B1">
-        <v>1.739220874465557</v>
+        <v>0.79325270652771</v>
       </c>
       <c r="C1">
-        <v>3.758075706612891</v>
+        <v>5.575876712799072</v>
       </c>
       <c r="D1">
-        <v>2.539981159464464</v>
+        <v>1.567294716835022</v>
       </c>
       <c r="E1">
-        <v>1.041612458389557</v>
+        <v>0.8993276953697205</v>
       </c>
     </row>
   </sheetData>
